--- a/outputs/1952_Male_White_Prostate_SUMMARY.xlsx
+++ b/outputs/1952_Male_White_Prostate_SUMMARY.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16.99983000169998</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>98864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>98166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>97575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>97525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>97457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>97405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>97365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>97304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>97250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>97192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>97152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>97087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>96975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>96851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>96739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>96594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>96428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>96282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>96115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>95928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>95748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>95571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>95389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>95211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>95036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>94843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>94673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>94525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>94361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>94181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>93990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>93779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>93551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>93325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>93113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>92834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>92586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>92349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>92078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>91760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>91433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>91104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>90741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>90349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>89965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>89559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>89118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>88672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>88153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.993787684999087</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>87567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.75744817907838</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>86933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>54.49022654021843</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>86253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>106.4290141866367</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>85502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>101.5012746671702</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>84727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>154.9426712116517</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>83901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>221.5826298486253</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>83038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>218.0427315029113</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>82093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>294.7487852403621</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>81085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>308.6226931390801</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>80032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>318.7787345373263</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>78737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>394.3880519816383</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>77334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>404.7248661903129</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>75853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>454.9798758901048</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>74288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>445.9677086344304</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>72650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>515.0783906975431</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>70862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>527.5897554824403</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>68992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>513.0499627143922</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>67049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>492.4895345973898</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>64975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>560.804244268485</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>62766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>592.1293370147367</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>60121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>575.0541844368314</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>57211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>572.1140537048999</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>54184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>581.0518022454205</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>50769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>525.43486090807</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>47198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>531.1900967689785</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>43298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>471.0375556970083</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>39274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>408.3380925185608</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>35019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>441.1332222331145</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>30602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>412.9333852746396</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>25669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>404.9982713488418</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>20246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>449.3223335297584</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>13575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>415.6010230179028</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>6255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>310.9452736318408</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
